--- a/DataSource/DataSource - Endoso - Modificacion de Datos.xlsx
+++ b/DataSource/DataSource - Endoso - Modificacion de Datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D70DF1-35F8-4885-8678-7C90EE50069E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CB9CF3-894B-447B-BA33-59DAB65735C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Usuario</t>
   </si>
@@ -90,16 +90,16 @@
     <t>https://ssurgwsoadev4.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>i-gestion-ssur-oci.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>https://i-gestion-ssur-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>suraqa</t>
-  </si>
-  <si>
-    <t>04104002557</t>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>04104013014</t>
   </si>
 </sst>
 </file>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,19 +481,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -564,38 +564,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{A3174BBA-4A0A-436D-99EC-82AA50211D9C}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
